--- a/scripts/trans/TranslationRequestExcels/IVP Contact Creation Translations.xlsx
+++ b/scripts/trans/TranslationRequestExcels/IVP Contact Creation Translations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikgupta10\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikgupta10\Desktop\Ups\Translation\scripts\trans\TranslationRequestExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98770717-4133-4AAC-BD44-27A6D987F95B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9279955-E59D-4992-B32E-913F6DAB3244}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -879,7 +879,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1314,6 +1314,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B21D606CA35484F9DA3516E894BFE6E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="37a8441487190ecc32f78b48c9ac696d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -1427,15 +1436,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1443,6 +1443,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F485F79E-B3E5-4B25-9AF1-E38F2271E462}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0489E140-975E-4AF0-B632-F5EC94E4800C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1454,14 +1462,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F485F79E-B3E5-4B25-9AF1-E38F2271E462}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/scripts/trans/TranslationRequestExcels/IVP Contact Creation Translations.xlsx
+++ b/scripts/trans/TranslationRequestExcels/IVP Contact Creation Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikgupta10\Desktop\Ups\Translation\scripts\trans\TranslationRequestExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9279955-E59D-4992-B32E-913F6DAB3244}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92329ED4-5979-4B03-B41E-E93968A0B07B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,7 +367,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +410,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -524,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -556,12 +562,16 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -879,7 +889,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -919,16 +929,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" s="14" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
@@ -1314,15 +1324,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B21D606CA35484F9DA3516E894BFE6E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="37a8441487190ecc32f78b48c9ac696d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -1436,6 +1437,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1443,14 +1453,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F485F79E-B3E5-4B25-9AF1-E38F2271E462}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0489E140-975E-4AF0-B632-F5EC94E4800C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1462,6 +1464,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F485F79E-B3E5-4B25-9AF1-E38F2271E462}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/scripts/trans/TranslationRequestExcels/IVP Contact Creation Translations.xlsx
+++ b/scripts/trans/TranslationRequestExcels/IVP Contact Creation Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikgupta10\Desktop\Ups\Translation\scripts\trans\TranslationRequestExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92329ED4-5979-4B03-B41E-E93968A0B07B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4986DE8A-F9C4-4E49-9BC8-16D6F31BC6CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
   <si>
     <t>English (US)</t>
   </si>
@@ -72,9 +72,6 @@
     <t>最后的异常信息</t>
   </si>
   <si>
-    <t>注意</t>
-  </si>
-  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Letzte Ausnahme</t>
   </si>
   <si>
-    <t>Beachtung</t>
-  </si>
-  <si>
     <t>Greek</t>
   </si>
   <si>
@@ -141,9 +135,6 @@
     <t>Τελευταία εξαίρεση</t>
   </si>
   <si>
-    <t>Προσοχή</t>
-  </si>
-  <si>
     <t>Ονομα</t>
   </si>
   <si>
@@ -165,9 +156,6 @@
     <t>Ultima eccezione</t>
   </si>
   <si>
-    <t>Attenzione</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -189,9 +177,6 @@
     <t>마지막 예외</t>
   </si>
   <si>
-    <t>주목</t>
-  </si>
-  <si>
     <t>이름</t>
   </si>
   <si>
@@ -213,9 +198,6 @@
     <t>Ostatni wyjątek</t>
   </si>
   <si>
-    <t>Uwaga</t>
-  </si>
-  <si>
     <t>Nazwa</t>
   </si>
   <si>
@@ -240,9 +222,6 @@
     <t>Última exceção</t>
   </si>
   <si>
-    <t>Atenção</t>
-  </si>
-  <si>
     <t>Portuguese (Europe)</t>
   </si>
   <si>
@@ -261,9 +240,6 @@
     <t>Última excepción</t>
   </si>
   <si>
-    <t>Atención</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -285,9 +261,6 @@
     <t>ข้อยกเว้นล่าสุด</t>
   </si>
   <si>
-    <t>ความสนใจ</t>
-  </si>
-  <si>
     <t>ชื่อ</t>
   </si>
   <si>
@@ -309,16 +282,7 @@
     <t>Ngoại lệ cuối cùng</t>
   </si>
   <si>
-    <t>Liên Hệ</t>
-  </si>
-  <si>
     <t>Tên</t>
-  </si>
-  <si>
-    <t>Attn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">À l'attention de </t>
   </si>
 </sst>
 </file>
@@ -367,7 +331,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,12 +370,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -530,7 +488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -559,19 +517,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -886,21 +841,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="9" width="23.81640625" customWidth="1"/>
+    <col min="3" max="8" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -923,24 +878,20 @@
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="14" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
+    <row r="3" spans="1:8" s="13" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -962,359 +913,320 @@
       <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>24</v>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="8" t="s">
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>7</v>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="8" t="s">
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="E8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="8" t="s">
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="B10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="G10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="8" t="s">
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="B11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>63</v>
       </c>
+      <c r="G11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="H12" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="E13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="F13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="F14" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
+    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>95</v>
+        <v>84</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1324,6 +1236,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B21D606CA35484F9DA3516E894BFE6E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="37a8441487190ecc32f78b48c9ac696d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -1437,15 +1358,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1453,6 +1365,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F485F79E-B3E5-4B25-9AF1-E38F2271E462}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0489E140-975E-4AF0-B632-F5EC94E4800C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1464,14 +1384,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F485F79E-B3E5-4B25-9AF1-E38F2271E462}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/scripts/trans/TranslationRequestExcels/IVP Contact Creation Translations.xlsx
+++ b/scripts/trans/TranslationRequestExcels/IVP Contact Creation Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikgupta10\Desktop\Ups\Translation\scripts\trans\TranslationRequestExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4986DE8A-F9C4-4E49-9BC8-16D6F31BC6CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BBBE1A-1334-42B9-B33B-C8DF7B159C83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1236,15 +1236,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003B21D606CA35484F9DA3516E894BFE6E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="37a8441487190ecc32f78b48c9ac696d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -1358,6 +1349,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1365,14 +1365,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F485F79E-B3E5-4B25-9AF1-E38F2271E462}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0489E140-975E-4AF0-B632-F5EC94E4800C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1384,6 +1376,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F485F79E-B3E5-4B25-9AF1-E38F2271E462}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/scripts/trans/TranslationRequestExcels/IVP Contact Creation Translations.xlsx
+++ b/scripts/trans/TranslationRequestExcels/IVP Contact Creation Translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikgupta10\Desktop\Ups\Translation\scripts\trans\TranslationRequestExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BBBE1A-1334-42B9-B33B-C8DF7B159C83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92329ED4-5979-4B03-B41E-E93968A0B07B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
   <si>
     <t>English (US)</t>
   </si>
@@ -72,6 +72,9 @@
     <t>最后的异常信息</t>
   </si>
   <si>
+    <t>注意</t>
+  </si>
+  <si>
     <t>姓名</t>
   </si>
   <si>
@@ -117,6 +120,9 @@
     <t>Letzte Ausnahme</t>
   </si>
   <si>
+    <t>Beachtung</t>
+  </si>
+  <si>
     <t>Greek</t>
   </si>
   <si>
@@ -135,6 +141,9 @@
     <t>Τελευταία εξαίρεση</t>
   </si>
   <si>
+    <t>Προσοχή</t>
+  </si>
+  <si>
     <t>Ονομα</t>
   </si>
   <si>
@@ -156,6 +165,9 @@
     <t>Ultima eccezione</t>
   </si>
   <si>
+    <t>Attenzione</t>
+  </si>
+  <si>
     <t>Nome</t>
   </si>
   <si>
@@ -177,6 +189,9 @@
     <t>마지막 예외</t>
   </si>
   <si>
+    <t>주목</t>
+  </si>
+  <si>
     <t>이름</t>
   </si>
   <si>
@@ -198,6 +213,9 @@
     <t>Ostatni wyjątek</t>
   </si>
   <si>
+    <t>Uwaga</t>
+  </si>
+  <si>
     <t>Nazwa</t>
   </si>
   <si>
@@ -222,6 +240,9 @@
     <t>Última exceção</t>
   </si>
   <si>
+    <t>Atenção</t>
+  </si>
+  <si>
     <t>Portuguese (Europe)</t>
   </si>
   <si>
@@ -240,6 +261,9 @@
     <t>Última excepción</t>
   </si>
   <si>
+    <t>Atención</t>
+  </si>
+  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -261,6 +285,9 @@
     <t>ข้อยกเว้นล่าสุด</t>
   </si>
   <si>
+    <t>ความสนใจ</t>
+  </si>
+  <si>
     <t>ชื่อ</t>
   </si>
   <si>
@@ -282,7 +309,16 @@
     <t>Ngoại lệ cuối cùng</t>
   </si>
   <si>
+    <t>Liên Hệ</t>
+  </si>
+  <si>
     <t>Tên</t>
+  </si>
+  <si>
+    <t>Attn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À l'attention de </t>
   </si>
 </sst>
 </file>
@@ -331,7 +367,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +406,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -488,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -517,16 +559,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,21 +886,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="8" width="23.81640625" customWidth="1"/>
+    <col min="3" max="9" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -878,20 +923,24 @@
         <v>6</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="13" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
+    <row r="3" spans="1:9" s="14" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
-    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -913,320 +962,359 @@
       <c r="G4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="I4" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>23</v>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>7</v>
+    <row r="7" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>36</v>
+    <row r="8" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>57</v>
+    <row r="12" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>43</v>
+    <row r="13" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
+    <row r="14" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>43</v>
+      <c r="C14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>78</v>
+        <v>86</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>85</v>
+        <v>93</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
